--- a/奈良石造物調査元データ.xlsx
+++ b/奈良石造物調査元データ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kohei Otsuka\github\JizoProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochi\github\JizoProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD04C7-3398-4951-8B19-0AF304F5E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352C63E8-09C1-4EE5-97EC-9FE008A774F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{79871847-9D77-47CA-8C05-A1A5044A8816}"/>
+    <workbookView xWindow="-10605" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{79871847-9D77-47CA-8C05-A1A5044A8816}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="303">
   <si>
     <t>地域</t>
     <rPh sb="0" eb="2">
@@ -994,6 +994,853 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ベン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舟形五輪塔残欠</t>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天文23.6.24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天文24.5.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天文24.6.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弘治2.3.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弘治2.12.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄4.1.16</t>
+    <rPh sb="0" eb="2">
+      <t>エイロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄4.3.17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄6.8.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄6.8.26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄6.-.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄7.1.-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄7.7.-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄7.9.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄8.4.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄8.5.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄8.6.14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄8.8.-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄8.12.28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄10.12.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元亀4.7.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正2.1.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頼禅得業
+天文廿三年
+六月廿四日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上半分欠失</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　清然
+永享二年
+二月彼岸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　堯範
+逆修法印権大
+顕定房
+永禄七年甲子五月十七日</t>
+    <rPh sb="26" eb="27">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;□&lt;@va&gt;&lt;@a&gt;　法眼演然
+天正十八年
+寅六月二重四日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空風輪部欠失</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□□&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　&lt;@hriih&gt;&lt;@sa&gt;&lt;@sah&gt;　高野山木食興山上人應其
+為法界衆生平等利益
+天正十八庚寅年三月十八日敬白</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　道音
+天文四乙未年
+正月十九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>興盛尊順房得業
+天文十三年甲辰正月廿三日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水地輪部に地蔵菩薩像を彫込む</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　逆修妙順禅尼
+天文十三年二月廿五日</t>
+    <rPh sb="9" eb="10">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オサム</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンモン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ジュウサンネン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニガツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地輪部に一尊像を彫込む</t>
+    <rPh sb="4" eb="7">
+      <t>イッソンゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　良胤尊儀
+天文廿四乙卯
+五月廿二日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　本願権律師寶清
+天文廿四乙卯年
+六月廿二日</t>
+    <rPh sb="14" eb="15">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　長盛大徳
+弘治二年
+三月六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙祐禅尼
+弘治二年丙辰
+十二月十一日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地輪部に一尊像を彫込む</t>
+    <rPh sb="4" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@vam&gt;　明窓西光禅尼
+永禄四年正月十六日</t>
+    <rPh sb="14" eb="16">
+      <t>エイロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水地輪部に蓮座上の阿弥陀如来立像を彫込む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@vam&gt;　照雲西光禅定門
+永禄四年三月十七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙勝
+永禄六年癸亥
+八月二日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上部欠失</t>
+    <rPh sb="1" eb="2">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙秀禅尼
+永禄六年八月廿六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　法橋圓弘
+永禄六□□九日</t>
+    <rPh sb="28" eb="29">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙善
+永禄七□□
+正月□□</t>
+    <rPh sb="29" eb="31">
+      <t>エイロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;（法名6名）
+永禄七年
+七月□日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　道順禅門
+永禄七年
+甲子九月九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□□&lt;@a&gt;　承賢禅門永禄八年乙丑
+四月廿二日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　&lt;@hriih&gt;（法名6名）
+永禄八年
+五月廿二日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　浄西
+永禄八年乙丑
+六月十四日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　道清
+永禄八□□
+八月□□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南無阿弥陀佛　浄善
+永禄八年乙丑
+十二月廿八日</t>
+    <rPh sb="10" eb="12">
+      <t>エイロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道久
+永禄卯
+十二月六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上半分欠失　もと西塔袈裟川にあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　善賢房
+元亀四癸酉
+七月七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙清
+天正元年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　浄蓮
+天正二年甲戌
+正月七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正3.4.11</t>
+    <rPh sb="0" eb="2">
+      <t>テンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正3.7.17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正3.12.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正4</t>
+    <rPh sb="0" eb="2">
+      <t>テンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正5.6.25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正5.12.18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正6.2.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正6.7.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正7.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正7.6.24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正7.9.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正8.2.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正8.7.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正9.2.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正10.2.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正10.11.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正11.2.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正11.2.18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正11.5.17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正12.12.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正13.2.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□□&lt;@va&gt;&lt;@a&gt;　堯経宗春房
+天正三年
+乙亥卯月十一日</t>
+    <rPh sb="12" eb="13">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙春禅尼
+天正三乙亥
+七月十七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　道祐禅門
+天正三乙亥
+十二月六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙西
+天正四年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□□&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙空禅□□
+天正五□□
+六月廿五□□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　阿古妙安禅定尼
+天正五丁丑
+十二月十八日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　浄心
+天正六寅
+二月六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@ha&gt;　逆修興兼
+順教房法印
+天正六戊寅七月十日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙善
+天正七年
+正月三日</t>
+    <rPh sb="9" eb="10">
+      <t>ミョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　宗順禅門
+天正七年
+六月廿四日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　清心□□
+天正七年己卯
+九月十九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　道順禅門
+天正八年庚辰
+二月廿三日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙善
+天正八年辰
+七月九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　宗祐禅定尼
+天正九辛巳
+二月十五日</t>
+    <rPh sb="21" eb="22">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙慶
+天正十年壬午
+二月七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　宗圓
+天正十年
+十一月六日</t>
+    <rPh sb="10" eb="11">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@vam&gt;　舜藝常教房
+天正十一年
+二月七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　宗宣
+浄元房得業
+天正十一年
+癸未二月十八日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙春
+天正十一癸未
+五月十七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　兼興順良房
+天正十二甲申
+十二月三日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　道春
+天正十三年
+二月十日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正13.3.21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正13.7.18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正14.3.28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正15.3.17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正15.12.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正17.2.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正17.2.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正17.12.21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正18.5.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正18.11.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正19.1.21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正19.3.16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正19.12.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正20.6.26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄1.12.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄2.2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄2.12.28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄3.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄4.12.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　清雲
+天正十三乙酉
+三月廿一日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　専莫覚順房
+天正十三年
+七月十日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　寺主恭深
+天正十四年丙戌
+三月廿八日</t>
+    <rPh sb="40" eb="41">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハチニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　&lt;@hriih&gt;&lt;@sa&gt;&lt;@sah&gt;　妙金禅尼
+天正十五年
+三月十七日</t>
+    <rPh sb="57" eb="62">
+      <t>サンガツジュウナナニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　道西
+天正十五年丁亥
+十二月十日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　朝善禅定門
+天正十七年
+己丑二月八日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　融盛
+天正十七年
+二月九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　清圓
+天正十七己丑年
+十二月廿一日</t>
+    <rPh sb="10" eb="11">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　慶秀
+天正十八年
+五月廿七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　宗恰
+天正十八
+庚寅十一月六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　定聲法師
+天正十九年
+正月廿一日</t>
+    <rPh sb="27" eb="28">
+      <t>コエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@vam&gt;　観清長明房
+天正十九年
+三月十六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　宗西禅門
+天正十九年辛卯
+十二月十日</t>
+    <rPh sb="41" eb="42">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙懐禅尼
+天正廿年
+六月廿六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神殿守利
+天正二十年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　長盛
+文禄元辰
+十二月廿七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>源西
+妙地
+文禄元年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もと西塔袈裟川にあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　道金
+文禄二癸巳
+二月三日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下部欠失</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　宗慶
+文禄二年
+十二月廿八日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙意禅尼
+文禄三年
+甲午正月三日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　法譽夢覺
+文禄四乙未
+十二月十一日</t>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1066,9 +1913,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1106,7 +1953,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1212,7 +2059,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1354,7 +2201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1364,32 +2211,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E736A9D-9E7F-4E10-8342-4A7FBE0C86E4}">
   <dimension ref="A1:O407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
+      <selection pane="bottomRight" activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="58.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +2283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +2324,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1515,7 +2362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1553,7 +2400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1597,7 +2444,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +2476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1673,7 +2520,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +2555,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +2578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1769,7 +2616,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1807,7 +2654,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1842,7 +2689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1880,7 +2727,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1918,7 +2765,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1959,7 +2806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2006,7 +2853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2053,7 +2900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2144,7 +2991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2182,7 +3029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2229,7 +3076,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="150" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2276,7 +3123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +3161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2349,7 +3196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +3231,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2419,7 +3266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2457,7 +3304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +3342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2539,7 +3386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +3409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2585,7 +3432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +3452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2628,7 +3475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2666,7 +3513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2704,7 +3551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2730,7 +3577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +3621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2794,7 +3641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2826,7 +3673,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2846,7 +3693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2878,7 +3725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2901,7 +3748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2948,7 +3795,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2995,7 +3842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3042,7 +3889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3089,7 +3936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3180,7 +4027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3221,7 +4068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3258,11 +4105,14 @@
       <c r="L50" t="s">
         <v>146</v>
       </c>
+      <c r="M50" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="O50">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3299,11 +4149,14 @@
       <c r="L51" t="s">
         <v>147</v>
       </c>
+      <c r="M51" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="O51">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -3340,11 +4193,14 @@
       <c r="L52" t="s">
         <v>148</v>
       </c>
+      <c r="M52" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="O52">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -3381,11 +4237,17 @@
       <c r="L53" t="s">
         <v>149</v>
       </c>
+      <c r="M53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N53" t="s">
+        <v>185</v>
+      </c>
       <c r="O53">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3422,11 +4284,14 @@
       <c r="L54" t="s">
         <v>150</v>
       </c>
+      <c r="M54" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="O54">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -3463,11 +4328,17 @@
       <c r="L55" t="s">
         <v>152</v>
       </c>
+      <c r="M55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N55" t="s">
+        <v>189</v>
+      </c>
       <c r="O55">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -3504,915 +4375,3561 @@
       <c r="L56" t="s">
         <v>151</v>
       </c>
+      <c r="M56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N56" t="s">
+        <v>191</v>
+      </c>
       <c r="O56">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>14</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>27.5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57">
+        <v>1554</v>
+      </c>
+      <c r="L57" t="s">
+        <v>158</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N57" t="s">
+        <v>181</v>
+      </c>
+      <c r="O57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>14</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>70.2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58">
+        <v>1555</v>
+      </c>
+      <c r="L58" t="s">
+        <v>159</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>14</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>54</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59">
+        <v>1555</v>
+      </c>
+      <c r="L59" t="s">
+        <v>160</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>14</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60">
+        <v>1556</v>
+      </c>
+      <c r="L60" t="s">
+        <v>161</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>14</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>59.8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61">
+        <v>1556</v>
+      </c>
+      <c r="L61" t="s">
+        <v>162</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>14</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>93</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>1561</v>
+      </c>
+      <c r="L62" t="s">
+        <v>163</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N62" t="s">
+        <v>196</v>
+      </c>
+      <c r="O62">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>14</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>92.5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>1561</v>
+      </c>
+      <c r="L63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>14</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64">
+        <v>1563</v>
+      </c>
+      <c r="L64" t="s">
+        <v>165</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N64" t="s">
+        <v>201</v>
+      </c>
+      <c r="O64">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>47.5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>42</v>
+      </c>
+      <c r="K65">
+        <v>1563</v>
+      </c>
+      <c r="L65" t="s">
+        <v>166</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N65" t="s">
+        <v>67</v>
+      </c>
+      <c r="O65">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>86.5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66">
+        <v>1563</v>
+      </c>
+      <c r="L66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O66">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>14</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67">
+        <v>36</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67">
+        <v>1564</v>
+      </c>
+      <c r="L67" t="s">
+        <v>168</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O67">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>14</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68">
+        <v>1564</v>
+      </c>
+      <c r="L68" t="s">
+        <v>169</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>14</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69">
+        <v>35.5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69">
+        <v>1564</v>
+      </c>
+      <c r="L69" t="s">
+        <v>170</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O69">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>14</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70">
+        <v>36</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70">
+        <v>1565</v>
+      </c>
+      <c r="L70" t="s">
+        <v>171</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N70" t="s">
+        <v>181</v>
+      </c>
+      <c r="O70">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>14</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>67.8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71">
+        <v>45.5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71">
+        <v>1565</v>
+      </c>
+      <c r="L71" t="s">
+        <v>172</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O71">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>67.8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72">
+        <v>51</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72">
+        <v>1565</v>
+      </c>
+      <c r="L72" t="s">
+        <v>173</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O72">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>14</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>68</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>1565</v>
+      </c>
+      <c r="L73" t="s">
+        <v>174</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>14</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>59.4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1565</v>
+      </c>
+      <c r="L74" t="s">
+        <v>175</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O74">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>14</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75">
+        <v>1567</v>
+      </c>
+      <c r="L75" t="s">
+        <v>176</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N75" t="s">
+        <v>213</v>
+      </c>
+      <c r="O75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>14</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>50.5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>42</v>
+      </c>
+      <c r="K76">
+        <v>1573</v>
+      </c>
+      <c r="L76" t="s">
+        <v>177</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N76" t="s">
+        <v>67</v>
+      </c>
+      <c r="O76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>14</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>43</v>
+      </c>
+      <c r="K77">
+        <v>1573</v>
+      </c>
+      <c r="L77" t="s">
+        <v>178</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>14</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>67</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78">
+        <v>45.5</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78">
+        <v>1574</v>
+      </c>
+      <c r="L78" t="s">
+        <v>179</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O78">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>14</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>43.5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79">
+        <v>1575</v>
+      </c>
+      <c r="L79" t="s">
+        <v>217</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N79" t="s">
+        <v>181</v>
+      </c>
+      <c r="O79">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>14</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>64</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80">
+        <v>1575</v>
+      </c>
+      <c r="L80" t="s">
+        <v>218</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O80">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>14</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81">
+        <v>1575</v>
+      </c>
+      <c r="L81" t="s">
+        <v>219</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N81" t="s">
+        <v>67</v>
+      </c>
+      <c r="O81">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82">
+        <v>1576</v>
+      </c>
+      <c r="L82" t="s">
+        <v>220</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>43</v>
+      </c>
+      <c r="K83">
+        <v>1577</v>
+      </c>
+      <c r="L83" t="s">
+        <v>221</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N83" t="s">
+        <v>181</v>
+      </c>
+      <c r="O83">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>64.5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>54</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84">
+        <v>1577</v>
+      </c>
+      <c r="L84" t="s">
+        <v>222</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O84">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>64.8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85">
+        <v>1578</v>
+      </c>
+      <c r="L85" t="s">
+        <v>223</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O85">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C86" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86">
+        <v>1578</v>
+      </c>
+      <c r="L86" t="s">
+        <v>224</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O86">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>14</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>58</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87">
+        <v>1579</v>
+      </c>
+      <c r="L87" t="s">
+        <v>225</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="O87">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>14</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>65</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88">
+        <v>57</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88">
+        <v>1579</v>
+      </c>
+      <c r="L88" t="s">
+        <v>226</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O88">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>14</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>73</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89">
+        <v>1580</v>
+      </c>
+      <c r="L89" t="s">
+        <v>227</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O89">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>14</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>83</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90">
+        <v>35</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+      <c r="K90">
+        <v>1580</v>
+      </c>
+      <c r="L90" t="s">
+        <v>228</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O90">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>14</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>61.2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91">
+        <v>48</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>43</v>
+      </c>
+      <c r="K91">
+        <v>1581</v>
+      </c>
+      <c r="L91" t="s">
+        <v>229</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O91">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>14</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>83</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92">
+        <v>38</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>43</v>
+      </c>
+      <c r="K92">
+        <v>1582</v>
+      </c>
+      <c r="L92" t="s">
+        <v>230</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O92">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>14</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93">
+        <v>35</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93">
+        <v>1582</v>
+      </c>
+      <c r="L93" t="s">
+        <v>231</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N93" t="s">
+        <v>67</v>
+      </c>
+      <c r="O93">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>14</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>47</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94">
+        <v>1583</v>
+      </c>
+      <c r="L94" t="s">
+        <v>232</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O94">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>14</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>65</v>
+      </c>
+      <c r="G95" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>43</v>
+      </c>
+      <c r="K95">
+        <v>1583</v>
+      </c>
+      <c r="L95" t="s">
+        <v>233</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O95">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>14</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>55.5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96">
+        <v>1583</v>
+      </c>
+      <c r="L96" t="s">
+        <v>234</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O96">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>14</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>85</v>
+      </c>
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>43</v>
+      </c>
+      <c r="K97">
+        <v>1583</v>
+      </c>
+      <c r="L97" t="s">
+        <v>235</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O97">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>14</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>50.5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98">
+        <v>29</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98">
+        <v>1584</v>
+      </c>
+      <c r="L98" t="s">
+        <v>236</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O98">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>14</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>50.3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99">
+        <v>1585</v>
+      </c>
+      <c r="L99" t="s">
+        <v>237</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O99">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>14</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>101</v>
+      </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100">
+        <v>39.5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100">
+        <v>1585</v>
+      </c>
+      <c r="L100" t="s">
+        <v>259</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O100">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>14</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>71</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101">
+        <v>1585</v>
+      </c>
+      <c r="L101" t="s">
+        <v>260</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="O101">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>14</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102">
+        <v>33</v>
+      </c>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102">
+        <v>1586</v>
+      </c>
+      <c r="L102" t="s">
+        <v>261</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O102">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>14</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>55.5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103">
+        <v>1587</v>
+      </c>
+      <c r="L103" t="s">
+        <v>262</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="O103">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>14</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>90.5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104">
+        <v>1587</v>
+      </c>
+      <c r="L104" t="s">
+        <v>263</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O104">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>14</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>62.8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105">
+        <v>42</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105">
+        <v>1589</v>
+      </c>
+      <c r="L105" t="s">
+        <v>264</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O105">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>14</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106">
+        <v>32</v>
+      </c>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>43</v>
+      </c>
+      <c r="K106">
+        <v>1589</v>
+      </c>
+      <c r="L106" t="s">
+        <v>265</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O106">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>14</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>62.8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107">
+        <v>34.5</v>
+      </c>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107">
+        <v>1589</v>
+      </c>
+      <c r="L107" t="s">
+        <v>266</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="O107">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>14</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>53</v>
+      </c>
+      <c r="G108" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108">
+        <v>28</v>
+      </c>
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108">
+        <v>1590</v>
+      </c>
+      <c r="L108" t="s">
+        <v>267</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="O108">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>14</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G109" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109">
+        <v>30</v>
+      </c>
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>43</v>
+      </c>
+      <c r="K109">
+        <v>1590</v>
+      </c>
+      <c r="L109" t="s">
+        <v>268</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O109">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>14</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>65</v>
+      </c>
+      <c r="G110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110">
+        <v>35</v>
+      </c>
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110">
+        <v>1591</v>
+      </c>
+      <c r="L110" t="s">
+        <v>269</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O110">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>14</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>39.5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>1591</v>
+      </c>
+      <c r="L111" t="s">
+        <v>270</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O111">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>14</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>68.2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112">
+        <v>36.6</v>
+      </c>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>1591</v>
+      </c>
+      <c r="L112" t="s">
+        <v>271</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="O112">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>14</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>78.5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113">
+        <v>36.5</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>43</v>
+      </c>
+      <c r="K113">
+        <v>1592</v>
+      </c>
+      <c r="L113" t="s">
+        <v>272</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O113">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>14</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>43</v>
+      </c>
+      <c r="K114">
+        <v>1592</v>
+      </c>
+      <c r="L114" t="s">
+        <v>273</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O114">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>14</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>49.5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115">
+        <v>27</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>43</v>
+      </c>
+      <c r="K115">
+        <v>1592</v>
+      </c>
+      <c r="L115" t="s">
+        <v>274</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O115">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>14</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>43</v>
+      </c>
+      <c r="K116">
+        <v>1592</v>
+      </c>
+      <c r="L116" t="s">
+        <v>275</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="N116" t="s">
+        <v>297</v>
+      </c>
+      <c r="O116">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>14</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>83.4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117">
+        <v>35</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>43</v>
+      </c>
+      <c r="K117">
+        <v>1593</v>
+      </c>
+      <c r="L117" t="s">
+        <v>276</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O117">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>14</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
+        <v>118</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>71.8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118">
+        <v>36</v>
+      </c>
+      <c r="I118" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>43</v>
+      </c>
+      <c r="K118">
+        <v>1593</v>
+      </c>
+      <c r="L118" t="s">
+        <v>277</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N118" t="s">
+        <v>299</v>
+      </c>
+      <c r="O118">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>14</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>55.8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>43</v>
+      </c>
+      <c r="K119">
+        <v>1594</v>
+      </c>
+      <c r="L119" t="s">
+        <v>278</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O119">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>14</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C120" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>61.5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>43</v>
+      </c>
+      <c r="K120">
+        <v>1595</v>
+      </c>
+      <c r="L120" t="s">
+        <v>279</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O120">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>14</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
+        <v>118</v>
+      </c>
+      <c r="O121">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>14</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
+        <v>118</v>
+      </c>
+      <c r="O122">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>14</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C123" t="s">
+        <v>118</v>
+      </c>
+      <c r="O123">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>14</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
+        <v>118</v>
+      </c>
+      <c r="O124">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>14</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
+        <v>118</v>
+      </c>
+      <c r="O125">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>14</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
+        <v>118</v>
+      </c>
+      <c r="O126">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>14</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C127" t="s">
+        <v>118</v>
+      </c>
+      <c r="O127">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>14</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
+        <v>118</v>
+      </c>
+      <c r="O128">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>14</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C129" t="s">
+        <v>118</v>
+      </c>
+      <c r="O129">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>14</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C130" t="s">
+        <v>118</v>
+      </c>
+      <c r="O130">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>14</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C131" t="s">
+        <v>118</v>
+      </c>
+      <c r="O131">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>14</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C132" t="s">
+        <v>118</v>
+      </c>
+      <c r="O132">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>14</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C133" t="s">
+        <v>118</v>
+      </c>
+      <c r="O133">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>14</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>118</v>
+      </c>
+      <c r="O134">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>14</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C135" t="s">
+        <v>118</v>
+      </c>
+      <c r="O135">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>14</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C136" t="s">
+        <v>118</v>
+      </c>
+      <c r="O136">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>14</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C137" t="s">
+        <v>118</v>
+      </c>
+      <c r="O137">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>14</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C138" t="s">
+        <v>118</v>
+      </c>
+      <c r="O138">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>14</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C139" t="s">
+        <v>118</v>
+      </c>
+      <c r="O139">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>14</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+      <c r="O140">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>14</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C141" t="s">
+        <v>118</v>
+      </c>
+      <c r="O141">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>14</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C142" t="s">
+        <v>118</v>
+      </c>
+      <c r="O142">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>14</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C143" t="s">
+        <v>118</v>
+      </c>
+      <c r="O143">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>14</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C144" t="s">
+        <v>118</v>
+      </c>
+      <c r="O144">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>14</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
+        <v>118</v>
+      </c>
+      <c r="O145">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>14</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C146" t="s">
+        <v>118</v>
+      </c>
+      <c r="O146">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>14</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C147" t="s">
+        <v>118</v>
+      </c>
+      <c r="O147">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>14</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C148" t="s">
+        <v>118</v>
+      </c>
+      <c r="O148">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>14</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
+        <v>118</v>
+      </c>
+      <c r="O149">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>14</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
+        <v>118</v>
+      </c>
+      <c r="O150">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>14</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C151" t="s">
+        <v>118</v>
+      </c>
+      <c r="O151">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>14</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C152" t="s">
+        <v>118</v>
+      </c>
+      <c r="O152">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>14</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
+        <v>118</v>
+      </c>
+      <c r="O153">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>14</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
+        <v>118</v>
+      </c>
+      <c r="O154">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>14</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C155" t="s">
+        <v>118</v>
+      </c>
+      <c r="O155">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>14</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C156" t="s">
+        <v>118</v>
+      </c>
+      <c r="O156">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>14</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C157" t="s">
+        <v>118</v>
+      </c>
+      <c r="O157">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>14</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C158" t="s">
+        <v>118</v>
+      </c>
+      <c r="O158">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>14</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C159" t="s">
+        <v>118</v>
+      </c>
+      <c r="O159">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>14</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C160" t="s">
+        <v>118</v>
+      </c>
+      <c r="O160">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>14</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C161" t="s">
+        <v>118</v>
+      </c>
+      <c r="O161">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>14</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C162" t="s">
+        <v>118</v>
+      </c>
+      <c r="O162">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>14</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C163" t="s">
+        <v>118</v>
+      </c>
+      <c r="O163">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>14</v>
       </c>
       <c r="B164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C164" t="s">
+        <v>118</v>
+      </c>
+      <c r="O164">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>14</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C165" t="s">
+        <v>118</v>
+      </c>
+      <c r="O165">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>14</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C166" t="s">
+        <v>118</v>
+      </c>
+      <c r="O166">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>14</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C167" t="s">
+        <v>118</v>
+      </c>
+      <c r="O167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>14</v>
       </c>
       <c r="B168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C168" t="s">
+        <v>118</v>
+      </c>
+      <c r="O168">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>14</v>
       </c>
       <c r="B169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C169" t="s">
+        <v>118</v>
+      </c>
+      <c r="O169">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4420,7 +7937,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -4428,7 +7945,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -4436,7 +7953,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4444,7 +7961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -4452,7 +7969,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -4460,7 +7977,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -4468,7 +7985,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -4476,7 +7993,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -4484,7 +8001,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -4492,7 +8009,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -4500,7 +8017,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -4508,7 +8025,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -4516,7 +8033,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -4524,7 +8041,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -4532,7 +8049,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -4540,7 +8057,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -4548,7 +8065,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -4556,7 +8073,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -4564,7 +8081,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -4572,7 +8089,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -4580,7 +8097,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -4588,7 +8105,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -4596,7 +8113,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -4604,7 +8121,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -4612,7 +8129,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -4620,7 +8137,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -4628,7 +8145,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -4636,7 +8153,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -4644,7 +8161,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -4652,7 +8169,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -4660,7 +8177,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -4668,7 +8185,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -4676,7 +8193,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -4684,7 +8201,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -4692,7 +8209,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -4700,7 +8217,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -4708,7 +8225,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -4716,7 +8233,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -4724,7 +8241,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -4732,7 +8249,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -4740,7 +8257,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -4748,7 +8265,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -4756,7 +8273,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -4764,7 +8281,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -4772,7 +8289,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -4780,7 +8297,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -4788,7 +8305,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -4796,7 +8313,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -4804,7 +8321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -4812,7 +8329,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -4820,7 +8337,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -4828,7 +8345,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4836,7 +8353,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -4844,7 +8361,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -4852,7 +8369,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -4860,7 +8377,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -4868,7 +8385,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -4876,7 +8393,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -4884,7 +8401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -4892,7 +8409,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -4900,7 +8417,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -4908,7 +8425,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -4916,7 +8433,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -4924,7 +8441,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -4932,7 +8449,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -4940,7 +8457,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -4948,7 +8465,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -4956,7 +8473,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -4964,7 +8481,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -4972,7 +8489,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -4980,7 +8497,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -4988,7 +8505,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>14</v>
       </c>
@@ -4996,7 +8513,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -5004,7 +8521,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -5012,7 +8529,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +8537,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -5028,7 +8545,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -5036,7 +8553,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -5044,7 +8561,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -5052,7 +8569,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>14</v>
       </c>
@@ -5060,7 +8577,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -5068,7 +8585,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -5076,7 +8593,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -5084,7 +8601,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -5092,7 +8609,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -5100,7 +8617,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -5108,7 +8625,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -5116,7 +8633,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -5124,7 +8641,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -5132,7 +8649,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -5140,7 +8657,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -5148,7 +8665,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -5156,7 +8673,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>14</v>
       </c>
@@ -5164,7 +8681,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -5172,7 +8689,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -5180,7 +8697,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -5188,7 +8705,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -5196,7 +8713,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -5204,7 +8721,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -5212,7 +8729,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -5220,7 +8737,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -5228,7 +8745,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -5236,7 +8753,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -5244,7 +8761,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>14</v>
       </c>
@@ -5252,7 +8769,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -5260,7 +8777,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>14</v>
       </c>
@@ -5268,7 +8785,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -5276,7 +8793,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>14</v>
       </c>
@@ -5284,7 +8801,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -5292,7 +8809,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -5300,7 +8817,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -5308,7 +8825,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -5316,7 +8833,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -5324,7 +8841,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>14</v>
       </c>
@@ -5332,7 +8849,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -5340,7 +8857,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -5348,7 +8865,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -5356,7 +8873,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -5364,7 +8881,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -5372,7 +8889,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>14</v>
       </c>
@@ -5380,7 +8897,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>14</v>
       </c>
@@ -5388,7 +8905,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -5396,7 +8913,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -5404,7 +8921,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -5412,7 +8929,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>14</v>
       </c>
@@ -5420,7 +8937,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>14</v>
       </c>
@@ -5428,7 +8945,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>14</v>
       </c>
@@ -5436,7 +8953,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>14</v>
       </c>
@@ -5444,7 +8961,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -5452,7 +8969,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>14</v>
       </c>
@@ -5460,7 +8977,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>14</v>
       </c>
@@ -5468,7 +8985,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>14</v>
       </c>
@@ -5476,7 +8993,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>14</v>
       </c>
@@ -5484,7 +9001,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -5492,7 +9009,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -5500,7 +9017,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -5508,7 +9025,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>14</v>
       </c>
@@ -5516,7 +9033,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>14</v>
       </c>
@@ -5524,7 +9041,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>14</v>
       </c>
@@ -5532,7 +9049,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -5540,7 +9057,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -5548,7 +9065,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -5556,7 +9073,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>14</v>
       </c>
@@ -5564,7 +9081,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>14</v>
       </c>
@@ -5572,7 +9089,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>14</v>
       </c>
@@ -5580,7 +9097,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -5588,7 +9105,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -5596,7 +9113,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5604,7 +9121,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -5612,7 +9129,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -5620,7 +9137,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -5628,7 +9145,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -5636,7 +9153,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -5644,7 +9161,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -5652,7 +9169,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -5660,7 +9177,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -5668,7 +9185,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -5676,7 +9193,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -5684,7 +9201,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -5692,7 +9209,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -5700,7 +9217,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -5708,7 +9225,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -5716,7 +9233,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -5724,7 +9241,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -5732,7 +9249,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -5740,7 +9257,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -5748,7 +9265,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>14</v>
       </c>
@@ -5756,7 +9273,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>14</v>
       </c>
@@ -5764,7 +9281,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>14</v>
       </c>
@@ -5772,7 +9289,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>14</v>
       </c>
@@ -5780,7 +9297,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -5788,7 +9305,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -5796,7 +9313,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>14</v>
       </c>
@@ -5804,7 +9321,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>14</v>
       </c>
@@ -5812,7 +9329,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>14</v>
       </c>
@@ -5820,7 +9337,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>14</v>
       </c>
@@ -5828,7 +9345,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>14</v>
       </c>
@@ -5836,7 +9353,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -5844,7 +9361,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -5852,7 +9369,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -5860,7 +9377,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>14</v>
       </c>
@@ -5868,7 +9385,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>14</v>
       </c>
@@ -5876,7 +9393,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>14</v>
       </c>
@@ -5884,7 +9401,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>14</v>
       </c>
@@ -5892,7 +9409,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -5900,7 +9417,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>14</v>
       </c>
@@ -5908,7 +9425,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>14</v>
       </c>
@@ -5916,7 +9433,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>14</v>
       </c>
@@ -5924,7 +9441,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>14</v>
       </c>
@@ -5932,7 +9449,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>14</v>
       </c>
@@ -5940,7 +9457,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -5948,7 +9465,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -5956,7 +9473,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>14</v>
       </c>
@@ -5964,7 +9481,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>14</v>
       </c>
@@ -5972,7 +9489,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>14</v>
       </c>
@@ -5980,7 +9497,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>14</v>
       </c>
@@ -5988,7 +9505,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>14</v>
       </c>
@@ -5996,7 +9513,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -6004,7 +9521,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -6012,7 +9529,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -6020,7 +9537,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>14</v>
       </c>
@@ -6028,7 +9545,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>14</v>
       </c>
@@ -6036,7 +9553,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>14</v>
       </c>
@@ -6044,7 +9561,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -6052,7 +9569,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -6060,7 +9577,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -6068,7 +9585,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -6076,7 +9593,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>14</v>
       </c>
@@ -6084,7 +9601,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>14</v>
       </c>
@@ -6092,7 +9609,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>14</v>
       </c>
@@ -6100,7 +9617,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>14</v>
       </c>
@@ -6108,7 +9625,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -6116,7 +9633,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>14</v>
       </c>
@@ -6124,7 +9641,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>14</v>
       </c>
@@ -6132,7 +9649,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -6140,7 +9657,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>14</v>
       </c>
@@ -6148,7 +9665,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>14</v>
       </c>
@@ -6156,7 +9673,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>14</v>
       </c>
@@ -6164,7 +9681,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -6172,7 +9689,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -6180,7 +9697,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -6188,7 +9705,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>14</v>
       </c>
@@ -6196,7 +9713,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>14</v>
       </c>
@@ -6204,7 +9721,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>14</v>
       </c>
@@ -6212,7 +9729,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -6220,7 +9737,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -6228,7 +9745,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -6236,7 +9753,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>14</v>
       </c>
@@ -6244,7 +9761,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>14</v>
       </c>
@@ -6252,7 +9769,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>14</v>
       </c>
@@ -6260,7 +9777,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>14</v>
       </c>
@@ -6268,7 +9785,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>14</v>
       </c>
@@ -6276,7 +9793,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>14</v>
       </c>
@@ -6284,7 +9801,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>14</v>
       </c>
@@ -6292,7 +9809,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>14</v>
       </c>
@@ -6300,7 +9817,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>14</v>
       </c>
@@ -6308,7 +9825,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>14</v>
       </c>

--- a/奈良石造物調査元データ.xlsx
+++ b/奈良石造物調査元データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochi\github\JizoProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352C63E8-09C1-4EE5-97EC-9FE008A774F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC6B429-92F9-43D3-8407-076EB50720C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10605" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{79871847-9D77-47CA-8C05-A1A5044A8816}"/>
+    <workbookView xWindow="3810" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{79871847-9D77-47CA-8C05-A1A5044A8816}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="393">
   <si>
     <t>地域</t>
     <rPh sb="0" eb="2">
@@ -1842,6 +1842,508 @@
     <rPh sb="10" eb="11">
       <t>ヨ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄5.1.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄5.4.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文禄5.7.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長2.8.25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長3.5.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長3.6.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長4.8.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長5.2.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長5.4.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長5.4.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長6.6.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長6.8.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長7.5.13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長8.7.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長9.1.20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長9.2.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長9.4.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長9.7.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長9.12.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長11.10.14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長11.10.29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　練徳心研居士
+文禄五丙申
+正月十九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙善
+文禄五丙申
+四月二日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　春照
+文禄五申
+七月四日</t>
+    <rPh sb="9" eb="10">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙寿
+慶長元年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　實相為真禅定門
+慶長二年丁酉
+八月廿五日</t>
+    <rPh sb="9" eb="10">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゴニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙慶
+慶長三年
+五月三日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　祐性比丘尼
+慶長三年戊戌
+六月六日</t>
+    <rPh sb="41" eb="42">
+      <t>ロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙春禅尼
+慶長四己亥
+八月廿七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南無阿弥陀佛　光念逆修
+慶長五年
+二月十五日</t>
+    <rPh sb="20" eb="22">
+      <t>ゴニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@vam&gt;　泰安禅定門
+慶長五年庚子
+四月七日</t>
+    <rPh sb="7" eb="8">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙悦禅尼
+慶長五年
+庚子四月十五日</t>
+    <rPh sb="41" eb="42">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　清藝春教房
+慶長六年
+六月廿三日</t>
+    <rPh sb="9" eb="10">
+      <t>キヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　研譽宗玉
+慶長六年
+八月三日</t>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　圓空
+慶長七年
+五月十三日</t>
+    <rPh sb="9" eb="10">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@a&gt;　妙春禅定尼
+慶長八年
+癸卯七月七日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もと西塔跡にあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙岩
+慶長九□□
+正月廿日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（法名9名）
+慶長九年
+二月十五日</t>
+    <rPh sb="1" eb="3">
+      <t>ホウミョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙永
+慶長九年甲辰
+四月四日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@a&gt;　祐音禅定尼
+慶長九年
+七月四日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　妙久
+慶長九辰
+十二月五日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　宗善禅門
+慶長十一年
+丙午十月十四日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙清
+慶長十一年
+丙午十月廿九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舟形宝篋印塔</t>
+    <rPh sb="2" eb="6">
+      <t>ホウキョウイントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿弥陀如来像</t>
+    <rPh sb="0" eb="6">
+      <t>アミダニョライゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長11.11.7</t>
+    <rPh sb="0" eb="2">
+      <t>ケイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長13.8.26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長14.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長15.3.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長16.8.16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長17.8.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長17.11.29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長18.1.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長18.7.-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶長20.5.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天文17.3.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正1.8.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正18.6.21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天文9.11.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天文19.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永禄8.3.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正7.3.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正7.8.29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正10.8.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正12.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天正13.2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　浄林禅定門
+慶長十一年
+丙午十一月七日</t>
+    <rPh sb="27" eb="28">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@kha&gt;&lt;@ha&gt;&lt;@ra&gt;&lt;@va&gt;&lt;@a&gt;　光心童子
+慶長十三年
+戊申八月廿六日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　春厳道尊大禅定門
+慶長十四年
+己酉三月一日</t>
+    <rPh sb="27" eb="28">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙椿
+慶長十五年
+三月九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　王譽妙法禅定尼
+慶長十六年辛亥
+八月十六日</t>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　浄音禅門
+慶長十七年
+壬子八月十九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙春禅尼
+慶長十七年
+十一月廿九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　妙意禅尼
+慶長十八年
+正月十日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@a&gt;　妙春禅尼
+慶長十八年
+癸丑七月□□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　實譽道珍禅定門霊
+慶長廿年乙卯
+五月七日</t>
+    <rPh sb="9" eb="10">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舜明房僧都
+天文十七年
+三月十五日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙界
+天正元年八月八日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙寿禅尼
+天正十八年六月廿一日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>善経禅門
+天文九庚子十一月十九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;@hriih&gt;　逆修順道
+天文十三年二月廿四日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆修顕定房擬講堯範敬白
+天文十九年甲戌二月日</t>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙慶童女
+永禄八年乙丑三月十一日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西穏童女
+天正七年三月十日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙空禅尼
+天正七　八月廿九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光珪童子
+天正十年壬午八月十日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□祐童子
+天正十二年八月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妙祐
+天正十三年乙酉二月三日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2212,10 +2714,10 @@
   <dimension ref="A1:O407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M169" sqref="M169"/>
+      <selection pane="bottomRight" activeCell="M165" sqref="M165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7243,7 +7745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -7253,11 +7755,41 @@
       <c r="C121" t="s">
         <v>118</v>
       </c>
+      <c r="D121" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>66.8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121">
+        <v>35</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>43</v>
+      </c>
+      <c r="K121">
+        <v>1596</v>
+      </c>
+      <c r="L121" t="s">
+        <v>303</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="O121">
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -7267,11 +7799,41 @@
       <c r="C122" t="s">
         <v>118</v>
       </c>
+      <c r="D122" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>72</v>
+      </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122">
+        <v>35</v>
+      </c>
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122">
+        <v>1596</v>
+      </c>
+      <c r="L122" t="s">
+        <v>304</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="O122">
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -7281,11 +7843,44 @@
       <c r="C123" t="s">
         <v>118</v>
       </c>
+      <c r="D123" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123">
+        <v>24</v>
+      </c>
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123">
+        <v>1596</v>
+      </c>
+      <c r="L123" t="s">
+        <v>305</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="N123" t="s">
+        <v>181</v>
+      </c>
       <c r="O123">
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -7295,11 +7890,44 @@
       <c r="C124" t="s">
         <v>118</v>
       </c>
+      <c r="D124" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>43</v>
+      </c>
+      <c r="K124">
+        <v>1596</v>
+      </c>
+      <c r="L124" t="s">
+        <v>306</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N124" t="s">
+        <v>297</v>
+      </c>
       <c r="O124">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -7309,11 +7937,41 @@
       <c r="C125" t="s">
         <v>118</v>
       </c>
+      <c r="D125" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>71</v>
+      </c>
+      <c r="G125" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125">
+        <v>36</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125">
+        <v>1597</v>
+      </c>
+      <c r="L125" t="s">
+        <v>307</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="O125">
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -7323,11 +7981,41 @@
       <c r="C126" t="s">
         <v>118</v>
       </c>
+      <c r="D126" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>36.5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126">
+        <v>29</v>
+      </c>
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>43</v>
+      </c>
+      <c r="K126">
+        <v>1598</v>
+      </c>
+      <c r="L126" t="s">
+        <v>308</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="O126">
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -7337,11 +8025,41 @@
       <c r="C127" t="s">
         <v>118</v>
       </c>
+      <c r="D127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>69.8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127">
+        <v>30</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>43</v>
+      </c>
+      <c r="K127">
+        <v>1598</v>
+      </c>
+      <c r="L127" t="s">
+        <v>309</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="O127">
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -7351,11 +8069,41 @@
       <c r="C128" t="s">
         <v>118</v>
       </c>
+      <c r="D128" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>63.7</v>
+      </c>
+      <c r="G128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128">
+        <v>30</v>
+      </c>
+      <c r="I128" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128">
+        <v>1599</v>
+      </c>
+      <c r="L128" t="s">
+        <v>310</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="O128">
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -7365,11 +8113,41 @@
       <c r="C129" t="s">
         <v>118</v>
       </c>
+      <c r="D129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>79</v>
+      </c>
+      <c r="G129" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129">
+        <v>40</v>
+      </c>
+      <c r="I129" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>43</v>
+      </c>
+      <c r="K129">
+        <v>1600</v>
+      </c>
+      <c r="L129" t="s">
+        <v>311</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="O129">
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -7379,11 +8157,41 @@
       <c r="C130" t="s">
         <v>118</v>
       </c>
+      <c r="D130" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>43</v>
+      </c>
+      <c r="K130">
+        <v>1600</v>
+      </c>
+      <c r="L130" t="s">
+        <v>312</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="O130">
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -7393,11 +8201,41 @@
       <c r="C131" t="s">
         <v>118</v>
       </c>
+      <c r="D131" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>71.5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>43</v>
+      </c>
+      <c r="K131">
+        <v>1600</v>
+      </c>
+      <c r="L131" t="s">
+        <v>313</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="O131">
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7407,11 +8245,41 @@
       <c r="C132" t="s">
         <v>118</v>
       </c>
+      <c r="D132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>80</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132">
+        <v>38</v>
+      </c>
+      <c r="I132" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>43</v>
+      </c>
+      <c r="K132">
+        <v>1601</v>
+      </c>
+      <c r="L132" t="s">
+        <v>314</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="O132">
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -7421,11 +8289,41 @@
       <c r="C133" t="s">
         <v>118</v>
       </c>
+      <c r="D133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>67.3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133">
+        <v>31.5</v>
+      </c>
+      <c r="I133" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>43</v>
+      </c>
+      <c r="K133">
+        <v>1601</v>
+      </c>
+      <c r="L133" t="s">
+        <v>315</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="O133">
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -7435,11 +8333,41 @@
       <c r="C134" t="s">
         <v>118</v>
       </c>
+      <c r="D134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134">
+        <v>27</v>
+      </c>
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>43</v>
+      </c>
+      <c r="K134">
+        <v>1602</v>
+      </c>
+      <c r="L134" t="s">
+        <v>316</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="O134">
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -7449,11 +8377,44 @@
       <c r="C135" t="s">
         <v>118</v>
       </c>
+      <c r="D135" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>22</v>
+      </c>
+      <c r="K135">
+        <v>1603</v>
+      </c>
+      <c r="L135" t="s">
+        <v>317</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N135" t="s">
+        <v>340</v>
+      </c>
       <c r="O135">
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -7463,11 +8424,41 @@
       <c r="C136" t="s">
         <v>118</v>
       </c>
+      <c r="D136" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>57</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>22</v>
+      </c>
+      <c r="K136">
+        <v>1604</v>
+      </c>
+      <c r="L136" t="s">
+        <v>318</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="O136">
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -7477,11 +8468,41 @@
       <c r="C137" t="s">
         <v>118</v>
       </c>
+      <c r="D137" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137">
+        <v>19</v>
+      </c>
+      <c r="I137" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137">
+        <v>1604</v>
+      </c>
+      <c r="L137" t="s">
+        <v>319</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="O137">
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -7491,11 +8512,41 @@
       <c r="C138" t="s">
         <v>118</v>
       </c>
+      <c r="D138" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>76</v>
+      </c>
+      <c r="G138" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138">
+        <v>39.5</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>22</v>
+      </c>
+      <c r="K138">
+        <v>1604</v>
+      </c>
+      <c r="L138" t="s">
+        <v>320</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="O138">
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -7505,11 +8556,41 @@
       <c r="C139" t="s">
         <v>118</v>
       </c>
+      <c r="D139" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>56</v>
+      </c>
+      <c r="G139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139">
+        <v>29</v>
+      </c>
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139">
+        <v>1604</v>
+      </c>
+      <c r="L139" t="s">
+        <v>321</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="O139">
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -7519,11 +8600,41 @@
       <c r="C140" t="s">
         <v>118</v>
       </c>
+      <c r="D140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>50.3</v>
+      </c>
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140">
+        <v>29</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>22</v>
+      </c>
+      <c r="K140">
+        <v>1604</v>
+      </c>
+      <c r="L140" t="s">
+        <v>322</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="O140">
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -7533,11 +8644,41 @@
       <c r="C141" t="s">
         <v>118</v>
       </c>
+      <c r="D141" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>62</v>
+      </c>
+      <c r="G141" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>22</v>
+      </c>
+      <c r="K141">
+        <v>1606</v>
+      </c>
+      <c r="L141" t="s">
+        <v>323</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="O141">
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -7547,11 +8688,44 @@
       <c r="C142" t="s">
         <v>118</v>
       </c>
+      <c r="D142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142">
+        <v>1606</v>
+      </c>
+      <c r="L142" t="s">
+        <v>324</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N142" t="s">
+        <v>297</v>
+      </c>
       <c r="O142">
         <v>78</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -7561,11 +8735,41 @@
       <c r="C143" t="s">
         <v>118</v>
       </c>
+      <c r="D143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>62.1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143">
+        <v>1606</v>
+      </c>
+      <c r="L143" t="s">
+        <v>350</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="O143">
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -7575,11 +8779,41 @@
       <c r="C144" t="s">
         <v>118</v>
       </c>
+      <c r="D144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>48</v>
+      </c>
+      <c r="G144" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144">
+        <v>1608</v>
+      </c>
+      <c r="L144" t="s">
+        <v>351</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="O144">
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -7589,11 +8823,41 @@
       <c r="C145" t="s">
         <v>118</v>
       </c>
+      <c r="D145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>92</v>
+      </c>
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145">
+        <v>42</v>
+      </c>
+      <c r="I145" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145">
+        <v>1609</v>
+      </c>
+      <c r="L145" t="s">
+        <v>352</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="O145">
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -7603,11 +8867,41 @@
       <c r="C146" t="s">
         <v>118</v>
       </c>
+      <c r="D146" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>39.5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146">
+        <v>1610</v>
+      </c>
+      <c r="L146" t="s">
+        <v>353</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="O146">
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -7617,11 +8911,41 @@
       <c r="C147" t="s">
         <v>118</v>
       </c>
+      <c r="D147" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>57.4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147">
+        <v>1611</v>
+      </c>
+      <c r="L147" t="s">
+        <v>354</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="O147">
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -7631,11 +8955,41 @@
       <c r="C148" t="s">
         <v>118</v>
       </c>
+      <c r="D148" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>71.3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>22</v>
+      </c>
+      <c r="K148">
+        <v>1612</v>
+      </c>
+      <c r="L148" t="s">
+        <v>355</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="O148">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -7645,11 +8999,41 @@
       <c r="C149" t="s">
         <v>118</v>
       </c>
+      <c r="D149" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>50</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149">
+        <v>1612</v>
+      </c>
+      <c r="L149" t="s">
+        <v>356</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="O149">
         <v>79</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -7659,11 +9043,41 @@
       <c r="C150" t="s">
         <v>118</v>
       </c>
+      <c r="D150" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>59.3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150">
+        <v>1613</v>
+      </c>
+      <c r="L150" t="s">
+        <v>357</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="O150">
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -7673,11 +9087,41 @@
       <c r="C151" t="s">
         <v>118</v>
       </c>
+      <c r="D151" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>66</v>
+      </c>
+      <c r="G151" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151">
+        <v>37</v>
+      </c>
+      <c r="I151" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151">
+        <v>1613</v>
+      </c>
+      <c r="L151" t="s">
+        <v>358</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="O151">
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -7687,11 +9131,41 @@
       <c r="C152" t="s">
         <v>118</v>
       </c>
+      <c r="D152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>59.8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>22</v>
+      </c>
+      <c r="K152">
+        <v>1615</v>
+      </c>
+      <c r="L152" t="s">
+        <v>359</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="O152">
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -7701,11 +9175,41 @@
       <c r="C153" t="s">
         <v>118</v>
       </c>
+      <c r="D153" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>87.8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>42</v>
+      </c>
+      <c r="K153">
+        <v>1548</v>
+      </c>
+      <c r="L153" t="s">
+        <v>360</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="O153">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -7715,11 +9219,41 @@
       <c r="C154" t="s">
         <v>118</v>
       </c>
+      <c r="D154" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>57.6</v>
+      </c>
+      <c r="G154" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154">
+        <v>39</v>
+      </c>
+      <c r="I154" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>43</v>
+      </c>
+      <c r="K154">
+        <v>1573</v>
+      </c>
+      <c r="L154" t="s">
+        <v>361</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="O154">
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -7729,11 +9263,41 @@
       <c r="C155" t="s">
         <v>118</v>
       </c>
+      <c r="D155" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>48.5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155">
+        <v>24</v>
+      </c>
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>43</v>
+      </c>
+      <c r="K155">
+        <v>1590</v>
+      </c>
+      <c r="L155" t="s">
+        <v>362</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="O155">
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -7743,11 +9307,41 @@
       <c r="C156" t="s">
         <v>118</v>
       </c>
+      <c r="D156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>37</v>
+      </c>
+      <c r="G156">
+        <v>25</v>
+      </c>
+      <c r="H156">
+        <v>23</v>
+      </c>
+      <c r="I156" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>42</v>
+      </c>
+      <c r="K156">
+        <v>1540</v>
+      </c>
+      <c r="L156" t="s">
+        <v>363</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="O156">
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -7757,11 +9351,41 @@
       <c r="C157" t="s">
         <v>118</v>
       </c>
+      <c r="D157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>69.5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157">
+        <v>36</v>
+      </c>
+      <c r="I157" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>42</v>
+      </c>
+      <c r="K157">
+        <v>1544</v>
+      </c>
+      <c r="L157" t="s">
+        <v>151</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="O157">
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -7771,11 +9395,41 @@
       <c r="C158" t="s">
         <v>118</v>
       </c>
+      <c r="D158" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>152</v>
+      </c>
+      <c r="G158">
+        <v>91</v>
+      </c>
+      <c r="H158">
+        <v>56</v>
+      </c>
+      <c r="I158" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>42</v>
+      </c>
+      <c r="K158">
+        <v>1550</v>
+      </c>
+      <c r="L158" t="s">
+        <v>364</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="O158">
         <v>79</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -7785,11 +9439,41 @@
       <c r="C159" t="s">
         <v>118</v>
       </c>
+      <c r="D159" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>70</v>
+      </c>
+      <c r="G159">
+        <v>43</v>
+      </c>
+      <c r="H159">
+        <v>45</v>
+      </c>
+      <c r="I159" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>42</v>
+      </c>
+      <c r="K159">
+        <v>1565</v>
+      </c>
+      <c r="L159" t="s">
+        <v>365</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="O159">
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -7799,11 +9483,41 @@
       <c r="C160" t="s">
         <v>118</v>
       </c>
+      <c r="D160" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>62</v>
+      </c>
+      <c r="G160">
+        <v>42.5</v>
+      </c>
+      <c r="H160">
+        <v>29.5</v>
+      </c>
+      <c r="I160" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>43</v>
+      </c>
+      <c r="K160">
+        <v>1579</v>
+      </c>
+      <c r="L160" t="s">
+        <v>366</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="O160">
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -7813,11 +9527,41 @@
       <c r="C161" t="s">
         <v>118</v>
       </c>
+      <c r="D161" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>34</v>
+      </c>
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161">
+        <v>26.5</v>
+      </c>
+      <c r="I161" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>43</v>
+      </c>
+      <c r="K161">
+        <v>1579</v>
+      </c>
+      <c r="L161" t="s">
+        <v>367</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="O161">
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -7827,11 +9571,41 @@
       <c r="C162" t="s">
         <v>118</v>
       </c>
+      <c r="D162" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>68</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162">
+        <v>31</v>
+      </c>
+      <c r="I162" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>43</v>
+      </c>
+      <c r="K162">
+        <v>1582</v>
+      </c>
+      <c r="L162" t="s">
+        <v>368</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="O162">
         <v>79</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -7841,11 +9615,41 @@
       <c r="C163" t="s">
         <v>118</v>
       </c>
+      <c r="D163" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>36.5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163">
+        <v>24</v>
+      </c>
+      <c r="I163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>43</v>
+      </c>
+      <c r="K163">
+        <v>1584</v>
+      </c>
+      <c r="L163" t="s">
+        <v>369</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="O163">
         <v>79</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -7854,6 +9658,36 @@
       </c>
       <c r="C164" t="s">
         <v>118</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>41.5</v>
+      </c>
+      <c r="G164" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164">
+        <v>30</v>
+      </c>
+      <c r="I164" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>43</v>
+      </c>
+      <c r="K164">
+        <v>1585</v>
+      </c>
+      <c r="L164" t="s">
+        <v>370</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="O164">
         <v>80</v>
